--- a/Data/Offense_2019.csv.xlsx
+++ b/Data/Offense_2019.csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Desktop\Project_3\TouchdownProphet\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kobe/Desktop/TouchdownProphet/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20D0F885-C043-4DCA-950E-E31E3B71C218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5107CF-07FA-D543-BADA-6BF75DAE613A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86094AB2-A76E-4F6A-A8C2-761F7424D10F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{86094AB2-A76E-4F6A-A8C2-761F7424D10F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,13 +216,13 @@
     <t>1st Downs by Penalty</t>
   </si>
   <si>
-    <t>% of Drives resulting in Offensive Score</t>
-  </si>
-  <si>
-    <t>% of Drives resulting in Turnover</t>
-  </si>
-  <si>
     <t>Expected points contributed by all Offense</t>
+  </si>
+  <si>
+    <t>% Drives resulting in Offensive Score</t>
+  </si>
+  <si>
+    <t>% Drives resulting in Turnover</t>
   </si>
 </sst>
 </file>
@@ -590,13 +590,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E7E0FD-5442-41A3-8FAA-C7F25A89A5F1}">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -673,16 +673,16 @@
         <v>59</v>
       </c>
       <c r="Z1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB1" t="s">
         <v>60</v>
       </c>
-      <c r="AA1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>62</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -768,7 +768,7 @@
         <v>239.99</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -854,7 +854,7 @@
         <v>140.38999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -940,7 +940,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>163.04</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>263.38</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>210.77</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>34.619999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>98.01</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>86.55</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>115.88</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>37.090000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>59.85</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>95.51</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>118.67</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>113.4</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>64.36</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>31.07</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>-10.3</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>-28.07</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>82.43</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>13.54</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>6.66</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>79.569999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>-28.85</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>-23.15</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>-85.56</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>-14.61</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>-41.05</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>-60.73</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>-112.92</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>-88.3</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>32</v>
@@ -3516,7 +3516,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
         <v>33</v>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
         <v>34</v>

--- a/Data/Offense_2019.csv.xlsx
+++ b/Data/Offense_2019.csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kobe/Desktop/TouchdownProphet/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Desktop\Project_3\TouchdownProphet\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5107CF-07FA-D543-BADA-6BF75DAE613A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20D0F885-C043-4DCA-950E-E31E3B71C218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{86094AB2-A76E-4F6A-A8C2-761F7424D10F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86094AB2-A76E-4F6A-A8C2-761F7424D10F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,13 +216,13 @@
     <t>1st Downs by Penalty</t>
   </si>
   <si>
+    <t>% of Drives resulting in Offensive Score</t>
+  </si>
+  <si>
+    <t>% of Drives resulting in Turnover</t>
+  </si>
+  <si>
     <t>Expected points contributed by all Offense</t>
-  </si>
-  <si>
-    <t>% Drives resulting in Offensive Score</t>
-  </si>
-  <si>
-    <t>% Drives resulting in Turnover</t>
   </si>
 </sst>
 </file>
@@ -590,13 +590,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E7E0FD-5442-41A3-8FAA-C7F25A89A5F1}">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -673,16 +673,16 @@
         <v>59</v>
       </c>
       <c r="Z1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -768,7 +768,7 @@
         <v>239.99</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -854,7 +854,7 @@
         <v>140.38999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -940,7 +940,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>163.04</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>263.38</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>210.77</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>34.619999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>98.01</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>86.55</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>115.88</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>37.090000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>59.85</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>95.51</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>118.67</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>113.4</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>64.36</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>31.07</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>-10.3</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>-28.07</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>82.43</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>13.54</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>6.66</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>79.569999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>-28.85</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>-23.15</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>-85.56</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>-14.61</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>-41.05</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>-60.73</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>-112.92</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>-88.3</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>32</v>
@@ -3516,7 +3516,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
         <v>33</v>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
         <v>34</v>
